--- a/数据整理/stocks/A股/深证主板/002918-蒙娜丽莎.xlsx
+++ b/数据整理/stocks/A股/深证主板/002918-蒙娜丽莎.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.04</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.30</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7601</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001947</t>
+          <t>005599</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根安鑫回报混合A</t>
+          <t>汇安量化优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.74</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002845</t>
+          <t>004726</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根安鑫回报混合C</t>
+          <t>先锋聚优灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.74</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004726</t>
+          <t>005600</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>先锋聚优灵活配置混合A</t>
+          <t>汇安量化优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9.52</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>93.51</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>9.52</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005599</t>
+          <t>001947</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇安量化优选灵活配置混合A</t>
+          <t>上投摩根安鑫回报混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005600</t>
+          <t>002845</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇安量化优选灵活配置混合C</t>
+          <t>上投摩根安鑫回报混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003586</t>
+          <t>005599</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>先锋精一灵活配置混合A</t>
+          <t>汇安量化优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.09</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.12</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -762,26 +862,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003587</t>
+          <t>004900</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>先锋精一灵活配置混合C</t>
+          <t>财通资管鑫锐回报混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>83.09</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.12</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -790,26 +900,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>162107</t>
+          <t>004901</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰量化精选股票（LOF）</t>
+          <t>财通资管鑫锐回报混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -818,25 +938,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004726</t>
+          <t>003586</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>先锋聚优灵活配置混合A</t>
+          <t>先锋精一灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.02</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -846,25 +976,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004727</t>
+          <t>003587</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>先锋聚优灵活配置混合C</t>
+          <t>先锋精一灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>84.02</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004729</t>
+          <t>005600</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧瑾泰灵活配置混合C</t>
+          <t>汇安量化优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>84.02</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005599</t>
+          <t>162107</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇安量化优选灵活配置混合A</t>
+          <t>金鹰量化精选股票（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005600</t>
+          <t>004726</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇安量化优选灵活配置混合C</t>
+          <t>先锋聚优灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005429</t>
+          <t>004727</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>渤海汇金睿选混合A</t>
+          <t>先锋聚优灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005430</t>
+          <t>004729</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>渤海汇金睿选混合C</t>
+          <t>中欧瑾泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004900</t>
+          <t>005429</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>财通资管鑫锐回报混合A</t>
+          <t>渤海汇金睿选混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>33.38</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004901</t>
+          <t>005430</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>财通资管鑫锐回报混合C</t>
+          <t>渤海汇金睿选混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>33.38</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002918-蒙娜丽莎.xlsx
+++ b/数据整理/stocks/A股/深证主板/002918-蒙娜丽莎.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4609</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3162</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002918-蒙娜丽莎.xlsx
+++ b/数据整理/stocks/A股/深证主板/002918-蒙娜丽莎.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1410,4 +1411,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3838</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002918-蒙娜丽莎.xlsx
+++ b/数据整理/stocks/A股/深证主板/002918-蒙娜丽莎.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1505,4 +1506,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002918-蒙娜丽莎.xlsx
+++ b/数据整理/stocks/A股/深证主板/002918-蒙娜丽莎.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1514,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,17 +1526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1545,14 +1566,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.38</v>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2088</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1561,14 +1604,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.78</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="4">
@@ -1577,14 +1710,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.14</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="5">
@@ -1593,13 +1726,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.81</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002918-蒙娜丽莎.xlsx
+++ b/数据整理/stocks/A股/深证主板/002918-蒙娜丽莎.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1647,7 +1648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1658,17 +1659,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1678,14 +1699,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.23</v>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6558</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1694,14 +1737,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.38</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
@@ -1710,14 +1843,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.78</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
@@ -1726,14 +1859,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.14</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="6">
@@ -1742,13 +1875,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.81</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002918-蒙娜丽莎.xlsx
+++ b/数据整理/stocks/A股/深证主板/002918-蒙娜丽莎.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1780,7 +1781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,17 +1792,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1811,14 +1832,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.66</v>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1827,14 +1870,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.23</v>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1843,14 +1908,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.38</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5">
@@ -1859,14 +2030,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.78</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6">
@@ -1875,14 +2046,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.14</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="7">
@@ -1891,13 +2062,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.81</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002918-蒙娜丽莎.xlsx
+++ b/数据整理/stocks/A股/深证主板/002918-蒙娜丽莎.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,319 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>163412</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴全轻资产混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>83.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.7601</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005599</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇安量化优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0368</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.66</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004726</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>先锋聚优灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.52</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005600</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇安量化优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+      <c r="D5" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004727</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>先锋聚优灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9.52</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.78</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001947</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>上投摩根安鑫回报混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>26.74</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002845</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>上投摩根安鑫回报混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>26.74</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
+      <c r="D8" t="n">
+        <v>2.81</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -779,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -830,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005599</t>
+          <t>011351</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇安量化优选灵活配置混合A</t>
+          <t>金鹰年年邮益一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>28.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0563</t>
+          <t>0.0374</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -868,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004900</t>
+          <t>004265</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通资管鑫锐回报混合A</t>
+          <t>金鹰民丰回报定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>33.38</t>
+          <t>24.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0388</t>
+          <t>0.0373</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -906,377 +732,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004901</t>
+          <t>011352</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>财通资管鑫锐回报混合C</t>
+          <t>金鹰年年邮益一年持有期混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33.38</t>
+          <t>28.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0201</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003586</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>先锋精一灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.09</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.12</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003587</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>先锋精一灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>83.09</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.12</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005600</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇安量化优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>162107</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>金鹰量化精选股票（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004726</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>先锋聚优灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>84.02</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004727</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>先锋聚优灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>84.02</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004729</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中欧瑾泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>84.02</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005429</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>渤海汇金睿选混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>25.03</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005430</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>渤海汇金睿选混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>25.03</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1312,7 +796,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1342,36 +826,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000457</t>
+          <t>519918</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根核心成长</t>
+          <t>华夏兴和混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.70</t>
+          <t>53.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.53</t>
+          <t>82.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4609</t>
+          <t>1.6558</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1380,36 +864,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>377010</t>
+          <t>004641</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根阿尔法混合</t>
+          <t>万家量化睿选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.44</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.07</t>
+          <t>85.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3162</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1418,6 +902,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2088</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1504,138 +1120,6 @@
       </c>
       <c r="H2" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009169</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>湘财长兴灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.34</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2088</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009170</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>湘财长兴灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.34</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0164</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1154,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1700,36 +1184,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519918</t>
+          <t>000457</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏兴和混合</t>
+          <t>上投摩根核心成长</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>53.07</t>
+          <t>16.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.18</t>
+          <t>80.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6558</t>
+          <t>0.4609</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1738,36 +1222,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004641</t>
+          <t>377010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家量化睿选灵活配置混合</t>
+          <t>上投摩根阿尔法混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>14.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.90</t>
+          <t>76.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.3162</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1781,7 +1265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1802,7 +1286,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1832,36 +1316,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011351</t>
+          <t>005599</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰年年邮益一年持有期混合A</t>
+          <t>汇安量化优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>28.25</t>
+          <t>94.02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0374</t>
+          <t>0.0563</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1870,36 +1354,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004265</t>
+          <t>004900</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰民丰回报定期开放混合</t>
+          <t>财通资管鑫锐回报混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>24.62</t>
+          <t>33.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0373</t>
+          <t>0.0388</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1908,35 +1392,377 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011352</t>
+          <t>004901</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰年年邮益一年持有期混合C</t>
+          <t>财通资管鑫锐回报混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28.25</t>
+          <t>33.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.0201</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004729</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧瑾泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1951,144 +1777,318 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>163412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全轻资产混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7601</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.78</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.14</v>
+          <t>001947</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根安鑫回报混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>002845</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根安鑫回报混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
-        <v>2.81</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002918-蒙娜丽莎.xlsx
+++ b/数据整理/stocks/A股/深证主板/002918-蒙娜丽莎.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.66</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.38</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.78</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.14</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.81</v>
       </c>
     </row>
@@ -600,6 +617,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -762,138 +1025,6 @@
       </c>
       <c r="H4" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519918</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏兴和混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>53.07</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6558</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004641</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家量化睿选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -958,32 +1089,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009169</t>
+          <t>519918</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>湘财长兴灵活配置混合A</t>
+          <t>华夏兴和混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>53.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.34</t>
+          <t>82.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2088</t>
+          <t>1.6558</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -996,36 +1127,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009170</t>
+          <t>004641</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>湘财长兴灵活配置混合C</t>
+          <t>万家量化睿选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.34</t>
+          <t>85.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0164</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1034,6 +1165,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2088</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1127,7 +1390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1259,7 +1522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1771,7 +2034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
